--- a/biology/Zoologie/Cyrtopodion_scabrum/Cyrtopodion_scabrum.xlsx
+++ b/biology/Zoologie/Cyrtopodion_scabrum/Cyrtopodion_scabrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtopodion scabrum est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtopodion scabrum est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Égypte, au Soudan, en Éthiopie, en Érythrée ;
 en Turquie, en Israël, en Jordanie, en Arabie saoudite, en Oman, aux Émirats arabes unis, au Koweït, en Irak, en Iran, en Afghanistan, au Pakistan et en Inde.
 Elle a été introduite au Texas aux États-Unis.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko nocturne plutôt gris, avec des taches plus sombres sur le dos, qui se transforment en bandes transversales sur la queue.
 </t>
@@ -576,7 +592,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en terrariophilie.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heyden, 1827 : Atlas zu der Reise im nördlichen Afrika. I. Zoologie. Reptilien. H. L. Brönner, p. 1-24 (texte intégral).</t>
         </is>
